--- a/users/Students.xlsx
+++ b/users/Students.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Propuesta" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="164">
   <si>
     <t>Nombre(s):</t>
   </si>
@@ -925,10 +926,877 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AG1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="57.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="41.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="43.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="164" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="53.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="55.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="89.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="46.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="46.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="59.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="163.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="3">
+        <v>30682</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3118376003</v>
+      </c>
+      <c r="I3" s="2">
+        <v>53028682</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="2">
+        <v>9</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="3">
+        <v>29587</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3219548299</v>
+      </c>
+      <c r="I4" s="2">
+        <v>40432960</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="2">
+        <v>9</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3">
+        <v>33970</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3153877843</v>
+      </c>
+      <c r="I5" s="2">
+        <v>401821</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="2">
+        <v>9</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="3">
+        <v>35065</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3043763283</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1026294653</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="3">
+        <v>35065</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3102395854</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1026296023</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="3">
+        <v>33604</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3188649463</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1014228980</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="2">
+        <v>10</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3002149885</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1075674833</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="2">
+        <v>4</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="3">
+        <v>33970</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3102667988</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1018456813</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="2">
+        <v>6</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="3">
+        <v>33970</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3208161788</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1020784279</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="2">
+        <v>8</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="3">
+        <v>34335</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3003980847</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1024547051</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="2">
+        <v>9</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="AU16" sqref="AU16"/>
+    <sheetView topLeftCell="AS1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="AS47" sqref="AS47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1889,7 +2757,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
